--- a/data/long_dif/IMC_R-Estudios-long_dif.xlsx
+++ b/data/long_dif/IMC_R-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,49; 21,88</t>
+          <t>4,26; 15,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 20,07</t>
+          <t>10,28; 20,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 17,39</t>
+          <t>8,12; 25,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 16,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,68</t>
+          <t>7,26; 19,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,62</t>
+          <t>6,9; 15,69</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 24,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 14,96</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 16,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 21,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,45%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>77,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77,82%</t>
+          <t>78,08%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>77,79%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>77,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,22; 83,69</t>
+          <t>69,03; 86,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>70,1; 83,76</t>
+          <t>69,8; 82,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,0; 82,84</t>
+          <t>65,81; 87,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,41; 83,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>69,91; 81,1</t>
+          <t>69,9; 84,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,35; 82,13</t>
+          <t>71,79; 83,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64,7; 81,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71,77; 83,22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72,72; 81,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69,09; 82,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,59</t>
+          <t>7,16; 20,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 13,65</t>
+          <t>4,85; 13,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 18,61</t>
+          <t>2,52; 17,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 14,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,73</t>
+          <t>5,49; 16,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,48</t>
+          <t>6,96; 16,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,76; 18,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 16,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 13,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 14,27</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 15,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,72%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>86,04%</t>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,31; 86,55</t>
+          <t>7,41; 16,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,99; 88,49</t>
+          <t>4,01; 9,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,66; 85,19</t>
+          <t>6,89; 14,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>84,2; 90,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,92; 85,15</t>
+          <t>5,55; 11,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,86; 88,23</t>
+          <t>4,06; 8,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 17,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 12,35</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 7,9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 14,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>82,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>81,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>87,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>78,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>82,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,17</t>
+          <t>77,26; 87,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,33; 13,75</t>
+          <t>80,04; 88,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,09</t>
+          <t>76,3; 86,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,22</t>
+          <t>77,05; 86,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,69</t>
+          <t>84,91; 90,62</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>72,9; 82,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78,75; 85,24</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>83,64; 88,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>76,45; 83,46</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 13,75</t>
+          <t>4,0; 9,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 14,83</t>
+          <t>6,15; 13,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,91</t>
+          <t>4,83; 12,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,63</t>
+          <t>6,85; 14,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,34</t>
+          <t>4,36; 8,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 12,02</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 11,04</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 10,21</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 11,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>85,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>86,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,05; 86,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>77,88; 87,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>88,17; 94,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>82,38; 88,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>82,7; 89,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>81,4; 87,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,01; 17,06</t>
+          <t>5,02; 13,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,93</t>
+          <t>5,96; 15,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,6</t>
+          <t>7,0; 15,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,66</t>
+          <t>2,2; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,07</t>
+          <t>3,55; 8,42</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4,49; 10,19</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 8,73</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 10,73</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 11,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>81,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>85,54%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>84,43%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>86,7%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>84,67%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>81,24%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,04</t>
+          <t>71,98; 86,33</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,18</t>
+          <t>77,96; 88,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>6,49; 10,15</t>
+          <t>71,89; 82,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,02</t>
+          <t>88,29; 94,4</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,18</t>
+          <t>81,9; 88,92</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>79,83; 88,38</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>82,49; 89,81</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>81,33; 87,29</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>77,23; 84,5</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>82,45%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>77,43; 84,11</t>
+          <t>6,51; 19,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,25</t>
+          <t>4,45; 10,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>81,47; 86,43</t>
+          <t>8,23; 16,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>82,92; 87,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>80,33; 84,57</t>
+          <t>2,21; 6,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>82,06; 85,62</t>
+          <t>6,51; 11,85</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 12,4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 11,2</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 9,98</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 13,52</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,65; 10,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,96; 9,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>7,2; 19,29</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 19,95</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 17,14</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>80,34%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>80,37%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>72,39; 87,0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>71,54; 86,7</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>75,47; 85,07</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 13,06</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 13,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 10,37</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>11,38%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 12,62</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 11,19</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 14,25</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 10,34</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>5,35; 8,46</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 14,12</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 10,83</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 9,32</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>9,54; 13,27</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>81,3%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>82,83%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>79,68%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>83,99%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>85,0%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>82,62%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>83,91%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>77,67; 84,0</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>79,92; 85,37</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>76,23; 83,52</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>81,12; 86,26</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>82,98; 87,23</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>76,73; 82,58</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>80,25; 84,37</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>82,15; 85,52</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>77,18; 81,78</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 11,7</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 10,7</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 12,08</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,21</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 9,89</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 11,35</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 9,97</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>7,09; 9,56</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 10,7</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/IMC_R-Estudios-long_dif.xlsx
+++ b/data/long_dif/IMC_R-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
